--- a/ยาแนะทำหุ้น.xlsx
+++ b/ยาแนะทำหุ้น.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29426"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29530"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\My PC\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C643B578-A942-40F1-B6EA-5B7598D4992B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{069ED067-3D6F-4FC7-B21A-067716724770}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{D7FA9DD5-521F-4AEA-B560-BE301BFB3194}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="1" xr2:uid="{D7FA9DD5-521F-4AEA-B560-BE301BFB3194}"/>
   </bookViews>
   <sheets>
     <sheet name="หุ้นไทย" sheetId="1" r:id="rId1"/>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="492" uniqueCount="290">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="515" uniqueCount="292">
   <si>
     <t>ประเภท</t>
   </si>
@@ -904,6 +904,12 @@
   </si>
   <si>
     <t>SERVICE</t>
+  </si>
+  <si>
+    <t>สหรัฐอเมริกา</t>
+  </si>
+  <si>
+    <t>ประเทศ</t>
   </si>
 </sst>
 </file>
@@ -1319,8 +1325,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A4678C14-BB51-4F00-952C-20047EA58291}">
   <dimension ref="A1:D64"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A33" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="A64" sqref="A64"/>
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="A72" sqref="A72"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
@@ -2237,8 +2243,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CDA1252E-40CC-40D8-BDF7-9C1DCC6ED0D3}">
   <dimension ref="A1:D43"/>
   <sheetViews>
-    <sheetView zoomScale="87" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="A13" sqref="A13"/>
+    <sheetView tabSelected="1" zoomScale="87" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="M10" sqref="M10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.8984375" defaultRowHeight="23.4" x14ac:dyDescent="0.6"/>
@@ -2246,7 +2252,8 @@
     <col min="1" max="1" width="8" style="6" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="12.8984375" style="6" customWidth="1"/>
     <col min="3" max="3" width="23.796875" style="6" customWidth="1"/>
-    <col min="4" max="16384" width="8.8984375" style="6"/>
+    <col min="4" max="4" width="12.796875" style="6" customWidth="1"/>
+    <col min="5" max="16384" width="8.8984375" style="6"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.6">
@@ -2259,6 +2266,9 @@
       <c r="C1" s="8" t="s">
         <v>25</v>
       </c>
+      <c r="D1" s="6" t="s">
+        <v>291</v>
+      </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.6">
       <c r="A2" s="6" t="s">
@@ -2270,6 +2280,9 @@
       <c r="C2" s="7" t="s">
         <v>27</v>
       </c>
+      <c r="D2" s="6" t="s">
+        <v>290</v>
+      </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.6">
       <c r="A3" s="6" t="s">
@@ -2281,6 +2294,9 @@
       <c r="C3" s="7" t="s">
         <v>29</v>
       </c>
+      <c r="D3" s="6" t="s">
+        <v>290</v>
+      </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.6">
       <c r="A4" s="6" t="s">
@@ -2292,6 +2308,9 @@
       <c r="C4" s="7" t="s">
         <v>31</v>
       </c>
+      <c r="D4" s="6" t="s">
+        <v>290</v>
+      </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.6">
       <c r="A5" s="6" t="s">
@@ -2303,6 +2322,9 @@
       <c r="C5" s="7" t="s">
         <v>33</v>
       </c>
+      <c r="D5" s="6" t="s">
+        <v>290</v>
+      </c>
     </row>
     <row r="6" spans="1:4" ht="24" customHeight="1" x14ac:dyDescent="0.6">
       <c r="A6" s="6" t="s">
@@ -2313,6 +2335,9 @@
       </c>
       <c r="C6" s="7" t="s">
         <v>35</v>
+      </c>
+      <c r="D6" s="6" t="s">
+        <v>290</v>
       </c>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.6">
@@ -2325,7 +2350,9 @@
       <c r="C7" s="7" t="s">
         <v>38</v>
       </c>
-      <c r="D7" s="7"/>
+      <c r="D7" s="7" t="s">
+        <v>290</v>
+      </c>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.6">
       <c r="A8" s="6" t="s">
@@ -2337,7 +2364,9 @@
       <c r="C8" s="7" t="s">
         <v>40</v>
       </c>
-      <c r="D8" s="7"/>
+      <c r="D8" s="7" t="s">
+        <v>290</v>
+      </c>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.6">
       <c r="A9" s="6" t="s">
@@ -2349,7 +2378,9 @@
       <c r="C9" s="7" t="s">
         <v>42</v>
       </c>
-      <c r="D9" s="7"/>
+      <c r="D9" s="7" t="s">
+        <v>290</v>
+      </c>
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.6">
       <c r="A10" s="6" t="s">
@@ -2361,7 +2392,9 @@
       <c r="C10" s="7" t="s">
         <v>44</v>
       </c>
-      <c r="D10" s="7"/>
+      <c r="D10" s="7" t="s">
+        <v>290</v>
+      </c>
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.6">
       <c r="A11" s="6" t="s">
@@ -2373,7 +2406,9 @@
       <c r="C11" s="7" t="s">
         <v>46</v>
       </c>
-      <c r="D11" s="7"/>
+      <c r="D11" s="7" t="s">
+        <v>290</v>
+      </c>
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.6">
       <c r="A12" s="6" t="s">
@@ -2385,7 +2420,9 @@
       <c r="C12" s="7" t="s">
         <v>48</v>
       </c>
-      <c r="D12" s="7"/>
+      <c r="D12" s="7" t="s">
+        <v>290</v>
+      </c>
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.6">
       <c r="A13" s="6" t="s">
@@ -2397,7 +2434,9 @@
       <c r="C13" s="7" t="s">
         <v>50</v>
       </c>
-      <c r="D13" s="7"/>
+      <c r="D13" s="7" t="s">
+        <v>290</v>
+      </c>
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.6">
       <c r="A14" s="6" t="s">
@@ -2409,7 +2448,9 @@
       <c r="C14" s="7" t="s">
         <v>52</v>
       </c>
-      <c r="D14" s="7"/>
+      <c r="D14" s="7" t="s">
+        <v>290</v>
+      </c>
     </row>
     <row r="15" spans="1:4" x14ac:dyDescent="0.6">
       <c r="A15" s="6" t="s">
@@ -2421,7 +2462,9 @@
       <c r="C15" s="7" t="s">
         <v>54</v>
       </c>
-      <c r="D15" s="7"/>
+      <c r="D15" s="7" t="s">
+        <v>290</v>
+      </c>
     </row>
     <row r="16" spans="1:4" x14ac:dyDescent="0.6">
       <c r="A16" s="6" t="s">
@@ -2433,12 +2476,11 @@
       <c r="C16" s="7" t="s">
         <v>56</v>
       </c>
-      <c r="D16" s="7"/>
+      <c r="D16" s="7" t="s">
+        <v>290</v>
+      </c>
     </row>
     <row r="17" spans="1:4" x14ac:dyDescent="0.6">
-      <c r="A17" s="6" t="s">
-        <v>173</v>
-      </c>
       <c r="D17" s="7"/>
     </row>
     <row r="18" spans="1:4" x14ac:dyDescent="0.6">
@@ -2451,6 +2493,9 @@
       <c r="C18" s="6" t="s">
         <v>180</v>
       </c>
+      <c r="D18" s="6" t="s">
+        <v>173</v>
+      </c>
     </row>
     <row r="19" spans="1:4" x14ac:dyDescent="0.6">
       <c r="A19" s="6" t="s">
@@ -2462,6 +2507,9 @@
       <c r="C19" s="6" t="s">
         <v>170</v>
       </c>
+      <c r="D19" s="6" t="s">
+        <v>173</v>
+      </c>
     </row>
     <row r="20" spans="1:4" x14ac:dyDescent="0.6">
       <c r="A20" s="6" t="s">
@@ -2473,6 +2521,9 @@
       <c r="C20" s="6" t="s">
         <v>175</v>
       </c>
+      <c r="D20" s="6" t="s">
+        <v>173</v>
+      </c>
     </row>
     <row r="21" spans="1:4" x14ac:dyDescent="0.6">
       <c r="A21" s="6" t="s">
@@ -2484,6 +2535,9 @@
       <c r="C21" s="6" t="s">
         <v>181</v>
       </c>
+      <c r="D21" s="6" t="s">
+        <v>173</v>
+      </c>
     </row>
     <row r="22" spans="1:4" x14ac:dyDescent="0.6">
       <c r="A22" s="6" t="s">
@@ -2495,10 +2549,8 @@
       <c r="C22" s="6" t="s">
         <v>182</v>
       </c>
-    </row>
-    <row r="23" spans="1:4" x14ac:dyDescent="0.6">
-      <c r="A23" s="6" t="s">
-        <v>174</v>
+      <c r="D22" s="6" t="s">
+        <v>173</v>
       </c>
     </row>
     <row r="24" spans="1:4" x14ac:dyDescent="0.6">
@@ -2511,6 +2563,9 @@
       <c r="C24" s="6" t="s">
         <v>183</v>
       </c>
+      <c r="D24" s="6" t="s">
+        <v>174</v>
+      </c>
     </row>
     <row r="25" spans="1:4" x14ac:dyDescent="0.6">
       <c r="A25" s="6" t="s">
@@ -2522,6 +2577,9 @@
       <c r="C25" s="6" t="s">
         <v>184</v>
       </c>
+      <c r="D25" s="6" t="s">
+        <v>174</v>
+      </c>
     </row>
     <row r="26" spans="1:4" x14ac:dyDescent="0.6">
       <c r="A26" s="6" t="s">
@@ -2533,6 +2591,9 @@
       <c r="C26" s="6" t="s">
         <v>185</v>
       </c>
+      <c r="D26" s="6" t="s">
+        <v>174</v>
+      </c>
     </row>
     <row r="27" spans="1:4" x14ac:dyDescent="0.6">
       <c r="A27" s="6" t="s">
@@ -2544,10 +2605,8 @@
       <c r="C27" s="6" t="s">
         <v>176</v>
       </c>
-    </row>
-    <row r="28" spans="1:4" x14ac:dyDescent="0.6">
-      <c r="A28" s="6" t="s">
-        <v>203</v>
+      <c r="D27" s="6" t="s">
+        <v>174</v>
       </c>
     </row>
     <row r="29" spans="1:4" x14ac:dyDescent="0.6">
@@ -2560,10 +2619,8 @@
       <c r="C29" s="6" t="s">
         <v>186</v>
       </c>
-    </row>
-    <row r="30" spans="1:4" x14ac:dyDescent="0.6">
-      <c r="A30" s="6" t="s">
-        <v>205</v>
+      <c r="D29" s="6" t="s">
+        <v>203</v>
       </c>
     </row>
     <row r="31" spans="1:4" x14ac:dyDescent="0.6">
@@ -2576,13 +2633,11 @@
       <c r="C31" s="6" t="s">
         <v>187</v>
       </c>
-    </row>
-    <row r="32" spans="1:4" x14ac:dyDescent="0.6">
-      <c r="A32" s="6" t="s">
-        <v>207</v>
-      </c>
-    </row>
-    <row r="33" spans="1:3" x14ac:dyDescent="0.6">
+      <c r="D31" s="6" t="s">
+        <v>205</v>
+      </c>
+    </row>
+    <row r="33" spans="1:4" x14ac:dyDescent="0.6">
       <c r="A33" s="6" t="s">
         <v>2</v>
       </c>
@@ -2592,13 +2647,11 @@
       <c r="C33" s="6" t="s">
         <v>188</v>
       </c>
-    </row>
-    <row r="34" spans="1:3" x14ac:dyDescent="0.6">
-      <c r="A34" s="6" t="s">
-        <v>209</v>
-      </c>
-    </row>
-    <row r="35" spans="1:3" x14ac:dyDescent="0.6">
+      <c r="D33" s="6" t="s">
+        <v>207</v>
+      </c>
+    </row>
+    <row r="35" spans="1:4" x14ac:dyDescent="0.6">
       <c r="A35" s="6" t="s">
         <v>2</v>
       </c>
@@ -2608,13 +2661,11 @@
       <c r="C35" s="6" t="s">
         <v>189</v>
       </c>
-    </row>
-    <row r="36" spans="1:3" x14ac:dyDescent="0.6">
-      <c r="A36" s="6" t="s">
-        <v>205</v>
-      </c>
-    </row>
-    <row r="37" spans="1:3" x14ac:dyDescent="0.6">
+      <c r="D35" s="6" t="s">
+        <v>209</v>
+      </c>
+    </row>
+    <row r="37" spans="1:4" x14ac:dyDescent="0.6">
       <c r="A37" s="6" t="s">
         <v>3</v>
       </c>
@@ -2624,13 +2675,11 @@
       <c r="C37" s="6" t="s">
         <v>190</v>
       </c>
-    </row>
-    <row r="38" spans="1:3" x14ac:dyDescent="0.6">
-      <c r="A38" s="6" t="s">
-        <v>212</v>
-      </c>
-    </row>
-    <row r="39" spans="1:3" x14ac:dyDescent="0.6">
+      <c r="D37" s="6" t="s">
+        <v>205</v>
+      </c>
+    </row>
+    <row r="39" spans="1:4" x14ac:dyDescent="0.6">
       <c r="A39" s="6" t="s">
         <v>3</v>
       </c>
@@ -2640,13 +2689,11 @@
       <c r="C39" s="6" t="s">
         <v>191</v>
       </c>
-    </row>
-    <row r="40" spans="1:3" x14ac:dyDescent="0.6">
-      <c r="A40" s="6" t="s">
-        <v>178</v>
-      </c>
-    </row>
-    <row r="41" spans="1:3" x14ac:dyDescent="0.6">
+      <c r="D39" s="6" t="s">
+        <v>212</v>
+      </c>
+    </row>
+    <row r="41" spans="1:4" x14ac:dyDescent="0.6">
       <c r="A41" s="6" t="s">
         <v>1</v>
       </c>
@@ -2656,13 +2703,11 @@
       <c r="C41" s="6" t="s">
         <v>192</v>
       </c>
-    </row>
-    <row r="42" spans="1:3" x14ac:dyDescent="0.6">
-      <c r="A42" s="6" t="s">
-        <v>193</v>
-      </c>
-    </row>
-    <row r="43" spans="1:3" x14ac:dyDescent="0.6">
+      <c r="D41" s="6" t="s">
+        <v>178</v>
+      </c>
+    </row>
+    <row r="43" spans="1:4" x14ac:dyDescent="0.6">
       <c r="A43" s="6" t="s">
         <v>1</v>
       </c>
@@ -2671,6 +2716,9 @@
       </c>
       <c r="C43" s="6" t="s">
         <v>194</v>
+      </c>
+      <c r="D43" s="6" t="s">
+        <v>193</v>
       </c>
     </row>
   </sheetData>
